--- a/BrwBomTyp_20220317164457_1_anomoly (1).xlsx
+++ b/BrwBomTyp_20220317164457_1_anomoly (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004scne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AF198-B0AF-4F2D-B249-8798C3FAE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FED2F-3103-4624-8567-95FC4DA48E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="=JZ21P" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="130">
   <si>
     <t>SIEMENS</t>
   </si>
@@ -626,27 +626,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -981,17 +981,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -1004,12 +1004,12 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1025,16 +1025,16 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1050,16 +1050,16 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1075,16 +1075,16 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1092,16 +1092,16 @@
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1109,16 +1109,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1126,8 +1126,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1147,10 +1147,10 @@
       <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
         <v>29</v>
@@ -1212,16 +1212,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>1</v>
+      <c r="A12" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
         <v>42</v>
       </c>
@@ -1251,10 +1251,10 @@
       <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
         <v>45</v>
       </c>
@@ -1284,10 +1284,10 @@
       <c r="B14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
         <v>42</v>
       </c>
@@ -1311,16 +1311,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>1</v>
+      <c r="A15" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
         <v>45</v>
       </c>
@@ -1350,10 +1350,10 @@
       <c r="B16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
         <v>51</v>
       </c>
@@ -1383,10 +1383,10 @@
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
         <v>51</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
         <v>51</v>
       </c>
@@ -1449,10 +1449,10 @@
       <c r="B19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
         <v>51</v>
       </c>
@@ -1482,10 +1482,10 @@
       <c r="B20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
         <v>65</v>
       </c>
@@ -1515,10 +1515,10 @@
       <c r="B21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
         <v>67</v>
       </c>
@@ -1548,10 +1548,10 @@
       <c r="B22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
         <v>68</v>
       </c>
@@ -1581,10 +1581,10 @@
       <c r="B23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
         <v>69</v>
       </c>
@@ -1614,10 +1614,10 @@
       <c r="B24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
         <v>70</v>
       </c>
@@ -1641,16 +1641,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
-        <v>1</v>
+      <c r="A25" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
         <v>70</v>
       </c>
@@ -1680,10 +1680,10 @@
       <c r="B26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
         <v>65</v>
       </c>
@@ -1713,10 +1713,10 @@
       <c r="B27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
         <v>67</v>
       </c>
@@ -1746,10 +1746,10 @@
       <c r="B28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
         <v>68</v>
       </c>
@@ -1779,10 +1779,10 @@
       <c r="B29" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
         <v>69</v>
       </c>
@@ -1812,10 +1812,10 @@
       <c r="B30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
         <v>82</v>
       </c>
@@ -1845,10 +1845,10 @@
       <c r="B31" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
         <v>86</v>
       </c>
@@ -1878,10 +1878,10 @@
       <c r="B32" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="21" t="s">
         <v>89</v>
       </c>
@@ -1911,10 +1911,10 @@
       <c r="B33" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="21" t="s">
         <v>92</v>
       </c>
@@ -1944,10 +1944,10 @@
       <c r="B34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="21" t="s">
         <v>95</v>
       </c>
@@ -1977,10 +1977,10 @@
       <c r="B35" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="21" t="s">
         <v>96</v>
       </c>
@@ -2010,10 +2010,10 @@
       <c r="B36" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="21" t="s">
         <v>95</v>
       </c>
@@ -2037,16 +2037,16 @@
       </c>
     </row>
     <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
-        <v>1</v>
+      <c r="A37" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="21" t="s">
         <v>96</v>
       </c>
@@ -2076,10 +2076,10 @@
       <c r="B38" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="21" t="s">
         <v>95</v>
       </c>
@@ -2109,10 +2109,10 @@
       <c r="B39" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="21" t="s">
         <v>96</v>
       </c>
@@ -2142,10 +2142,10 @@
       <c r="B40" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="21" t="s">
         <v>95</v>
       </c>
@@ -2175,10 +2175,10 @@
       <c r="B41" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="21" t="s">
         <v>96</v>
       </c>
@@ -2208,10 +2208,10 @@
       <c r="B42" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="21" t="s">
         <v>105</v>
       </c>
@@ -2241,10 +2241,10 @@
       <c r="B43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="21" t="s">
         <v>86</v>
       </c>
@@ -2274,10 +2274,10 @@
       <c r="B44" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="21" t="s">
         <v>89</v>
       </c>
@@ -2307,10 +2307,10 @@
       <c r="B45" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="21" t="s">
         <v>89</v>
       </c>
@@ -2340,10 +2340,10 @@
       <c r="B46" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="21" t="s">
         <v>89</v>
       </c>
@@ -2373,10 +2373,10 @@
       <c r="B47" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="21" t="s">
         <v>89</v>
       </c>
@@ -2406,10 +2406,10 @@
       <c r="B48" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="21" t="s">
         <v>51</v>
       </c>
@@ -2433,16 +2433,16 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="20">
-        <v>1</v>
+      <c r="A49" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="21" t="s">
         <v>105</v>
       </c>
@@ -2467,53 +2467,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C43:D43"/>
@@ -2521,6 +2474,53 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.29527559055118108" right="0.29527559055118108" top="0.66929133858267709" bottom="1.3385826771653542" header="0.39370078740157477" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2531,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2549,17 +2549,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -2572,12 +2572,12 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2593,16 +2593,16 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2618,16 +2618,16 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2643,16 +2643,16 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2660,16 +2660,16 @@
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2677,16 +2677,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2694,8 +2694,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2715,10 +2715,10 @@
       <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
         <v>29</v>
@@ -2780,16 +2780,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
         <v>42</v>
       </c>
@@ -2819,10 +2819,10 @@
       <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
         <v>45</v>
       </c>
@@ -2846,16 +2846,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
         <v>42</v>
       </c>
@@ -2885,10 +2885,10 @@
       <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
         <v>45</v>
       </c>
@@ -2918,10 +2918,10 @@
       <c r="B16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
         <v>51</v>
       </c>
@@ -2945,16 +2945,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
         <v>51</v>
       </c>
@@ -2984,10 +2984,10 @@
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
         <v>51</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="B19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
         <v>51</v>
       </c>
@@ -3050,10 +3050,10 @@
       <c r="B20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
         <v>65</v>
       </c>
@@ -3083,10 +3083,10 @@
       <c r="B21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
         <v>67</v>
       </c>
@@ -3116,10 +3116,10 @@
       <c r="B22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
         <v>68</v>
       </c>
@@ -3149,10 +3149,10 @@
       <c r="B23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
         <v>69</v>
       </c>
@@ -3182,10 +3182,10 @@
       <c r="B24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
         <v>70</v>
       </c>
@@ -3215,10 +3215,10 @@
       <c r="B25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
         <v>70</v>
       </c>
@@ -3248,10 +3248,10 @@
       <c r="B26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
         <v>65</v>
       </c>
@@ -3281,10 +3281,10 @@
       <c r="B27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
         <v>67</v>
       </c>
@@ -3308,16 +3308,16 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
         <v>68</v>
       </c>
@@ -3347,10 +3347,10 @@
       <c r="B29" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
         <v>69</v>
       </c>
@@ -3380,10 +3380,10 @@
       <c r="B30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
         <v>82</v>
       </c>
@@ -3413,10 +3413,10 @@
       <c r="B31" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
         <v>86</v>
       </c>
@@ -3446,10 +3446,10 @@
       <c r="B32" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="21" t="s">
         <v>89</v>
       </c>
@@ -3479,10 +3479,10 @@
       <c r="B33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="21" t="s">
         <v>95</v>
       </c>
@@ -3512,10 +3512,10 @@
       <c r="B34" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="21" t="s">
         <v>96</v>
       </c>
@@ -3545,10 +3545,10 @@
       <c r="B35" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="21" t="s">
         <v>95</v>
       </c>
@@ -3578,10 +3578,10 @@
       <c r="B36" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="21" t="s">
         <v>96</v>
       </c>
@@ -3611,10 +3611,10 @@
       <c r="B37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="21" t="s">
         <v>95</v>
       </c>
@@ -3644,10 +3644,10 @@
       <c r="B38" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="21" t="s">
         <v>96</v>
       </c>
@@ -3677,10 +3677,10 @@
       <c r="B39" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="21" t="s">
         <v>95</v>
       </c>
@@ -3710,10 +3710,10 @@
       <c r="B40" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="21" t="s">
         <v>96</v>
       </c>
@@ -3743,10 +3743,10 @@
       <c r="B41" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="21" t="s">
         <v>105</v>
       </c>
@@ -3776,10 +3776,10 @@
       <c r="B42" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="21" t="s">
         <v>86</v>
       </c>
@@ -3809,10 +3809,10 @@
       <c r="B43" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="21" t="s">
         <v>89</v>
       </c>
@@ -3842,10 +3842,10 @@
       <c r="B44" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="21" t="s">
         <v>89</v>
       </c>
@@ -3875,10 +3875,10 @@
       <c r="B45" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="21" t="s">
         <v>89</v>
       </c>
@@ -3908,10 +3908,10 @@
       <c r="B46" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="21" t="s">
         <v>89</v>
       </c>
@@ -3941,10 +3941,10 @@
       <c r="B47" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="21" t="s">
         <v>51</v>
       </c>
@@ -3974,10 +3974,10 @@
       <c r="B48" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="21" t="s">
         <v>105</v>
       </c>
@@ -4002,59 +4002,59 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.29527559055118108" right="0.29527559055118108" top="0.66929133858267709" bottom="1.3385826771653542" header="0.39370078740157477" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -4081,17 +4081,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -4104,12 +4104,12 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4125,16 +4125,16 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4150,16 +4150,16 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4175,16 +4175,16 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4192,16 +4192,16 @@
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4209,16 +4209,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4226,8 +4226,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -4247,10 +4247,10 @@
       <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
         <v>29</v>
@@ -4318,10 +4318,10 @@
       <c r="B12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
         <v>51</v>
       </c>
@@ -4351,10 +4351,10 @@
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
         <v>51</v>
       </c>
@@ -4384,10 +4384,10 @@
       <c r="B14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
         <v>51</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="B15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
         <v>51</v>
       </c>
@@ -4450,10 +4450,10 @@
       <c r="B16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
         <v>65</v>
       </c>
@@ -4483,10 +4483,10 @@
       <c r="B17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
         <v>67</v>
       </c>
@@ -4516,10 +4516,10 @@
       <c r="B18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
         <v>65</v>
       </c>
@@ -4549,10 +4549,10 @@
       <c r="B19" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
         <v>67</v>
       </c>
@@ -4582,10 +4582,10 @@
       <c r="B20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
         <v>82</v>
       </c>
@@ -4615,10 +4615,10 @@
       <c r="B21" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
         <v>123</v>
       </c>
@@ -4648,10 +4648,10 @@
       <c r="B22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
         <v>89</v>
       </c>
@@ -4681,10 +4681,10 @@
       <c r="B23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
         <v>124</v>
       </c>
@@ -4714,10 +4714,10 @@
       <c r="B24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
         <v>105</v>
       </c>
@@ -4747,10 +4747,10 @@
       <c r="B25" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
         <v>123</v>
       </c>
@@ -4780,10 +4780,10 @@
       <c r="B26" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
         <v>89</v>
       </c>
@@ -4813,10 +4813,10 @@
       <c r="B27" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
         <v>89</v>
       </c>
@@ -4846,10 +4846,10 @@
       <c r="B28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
         <v>89</v>
       </c>
@@ -4879,10 +4879,10 @@
       <c r="B29" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
         <v>89</v>
       </c>
@@ -4912,10 +4912,10 @@
       <c r="B30" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
         <v>51</v>
       </c>
@@ -4945,10 +4945,10 @@
       <c r="B31" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
         <v>105</v>
       </c>
@@ -4973,33 +4973,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -5009,6 +4982,33 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.29527559055118108" right="0.29527559055118108" top="0.66929133858267709" bottom="1.3385826771653542" header="0.39370078740157477" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -5035,17 +5035,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
@@ -5058,12 +5058,12 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5079,16 +5079,16 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5104,16 +5104,16 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5129,16 +5129,16 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5146,16 +5146,16 @@
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5163,16 +5163,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5180,8 +5180,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5201,10 +5201,10 @@
       <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
         <v>29</v>
@@ -5272,10 +5272,10 @@
       <c r="B12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
         <v>51</v>
       </c>
@@ -5305,10 +5305,10 @@
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
         <v>51</v>
       </c>
@@ -5338,10 +5338,10 @@
       <c r="B14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
         <v>51</v>
       </c>
@@ -5371,10 +5371,10 @@
       <c r="B15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
         <v>51</v>
       </c>
@@ -5404,10 +5404,10 @@
       <c r="B16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
         <v>65</v>
       </c>
@@ -5437,10 +5437,10 @@
       <c r="B17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
         <v>67</v>
       </c>
@@ -5470,10 +5470,10 @@
       <c r="B18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
         <v>68</v>
       </c>
@@ -5503,10 +5503,10 @@
       <c r="B19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
@@ -5536,10 +5536,10 @@
       <c r="B20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
         <v>65</v>
       </c>
@@ -5569,10 +5569,10 @@
       <c r="B21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
         <v>67</v>
       </c>
@@ -5602,10 +5602,10 @@
       <c r="B22" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
         <v>68</v>
       </c>
@@ -5635,10 +5635,10 @@
       <c r="B23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
         <v>69</v>
       </c>
@@ -5668,10 +5668,10 @@
       <c r="B24" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
         <v>82</v>
       </c>
@@ -5701,10 +5701,10 @@
       <c r="B25" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
         <v>123</v>
       </c>
@@ -5734,10 +5734,10 @@
       <c r="B26" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
         <v>89</v>
       </c>
@@ -5767,10 +5767,10 @@
       <c r="B27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
         <v>126</v>
       </c>
@@ -5800,10 +5800,10 @@
       <c r="B28" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
         <v>105</v>
       </c>
@@ -5833,10 +5833,10 @@
       <c r="B29" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
         <v>123</v>
       </c>
@@ -5866,10 +5866,10 @@
       <c r="B30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
         <v>89</v>
       </c>
@@ -5899,10 +5899,10 @@
       <c r="B31" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
         <v>89</v>
       </c>
@@ -5932,10 +5932,10 @@
       <c r="B32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="21" t="s">
         <v>89</v>
       </c>
@@ -5965,10 +5965,10 @@
       <c r="B33" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="21" t="s">
         <v>89</v>
       </c>
@@ -5998,10 +5998,10 @@
       <c r="B34" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="21" t="s">
         <v>51</v>
       </c>
@@ -6031,10 +6031,10 @@
       <c r="B35" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="21" t="s">
         <v>105</v>
       </c>
@@ -6059,38 +6059,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -6099,6 +6067,38 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.29527559055118108" right="0.29527559055118108" top="0.66929133858267709" bottom="1.3385826771653542" header="0.39370078740157477" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/BrwBomTyp_20220317164457_1_anomoly (1).xlsx
+++ b/BrwBomTyp_20220317164457_1_anomoly (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004scne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FED2F-3103-4624-8567-95FC4DA48E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70ED50-95F1-494F-BEBC-6E8FE6C6D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="=JZ21P" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="128">
   <si>
     <t>SIEMENS</t>
   </si>
@@ -47,69 +47,30 @@
     <t>=JZ21P</t>
   </si>
   <si>
-    <t>Projekt-Nr.:</t>
-  </si>
-  <si>
     <t>4513581290</t>
   </si>
   <si>
-    <t>Projektname:</t>
-  </si>
-  <si>
     <t>C.5671 Electrification Programm Banedanmark from s06a</t>
   </si>
   <si>
-    <t>Leitungsquerschnitt:</t>
-  </si>
-  <si>
     <t>4,0 mm² / 2,5 mm² / 1,5 mm² / 2,5 mm²</t>
   </si>
   <si>
-    <t>Pos.-Nr.:</t>
-  </si>
-  <si>
-    <t>Anlagenstichwort:</t>
-  </si>
-  <si>
     <t>Sec6a - AT-Post Assendrup (AsdAT)</t>
   </si>
   <si>
-    <t>Adermarkierung:</t>
-  </si>
-  <si>
     <t>Label geklebt / Anschluss</t>
   </si>
   <si>
-    <t>Produkt:</t>
-  </si>
-  <si>
     <t>8DA1R</t>
   </si>
   <si>
-    <t>Kunde:</t>
-  </si>
-  <si>
     <t>Dänemark</t>
   </si>
   <si>
-    <t>Leitungsausführung:</t>
-  </si>
-  <si>
     <t>Halogenfrei 90°C 450/750V</t>
   </si>
   <si>
-    <t>Farbe Isolierung:</t>
-  </si>
-  <si>
-    <t>Farbig</t>
-  </si>
-  <si>
-    <t>Terminals:</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
     <t>Projekteur:</t>
   </si>
   <si>
@@ -128,39 +89,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>Menge</t>
-  </si>
-  <si>
-    <t>Bestell-Nr.</t>
-  </si>
-  <si>
-    <t>Kurztext</t>
-  </si>
-  <si>
-    <t>BMKZ</t>
-  </si>
-  <si>
-    <t>Ort</t>
-  </si>
-  <si>
-    <t>Bem.</t>
-  </si>
-  <si>
-    <t>Whrg.</t>
-  </si>
-  <si>
-    <t>L-Preis Gerät
-(einzel)</t>
-  </si>
-  <si>
-    <t>L-Preis E&amp;V
-(einzel)</t>
-  </si>
-  <si>
-    <t>L-Preis Summe
-(gesamt)</t>
-  </si>
-  <si>
     <t>3RH2131-1BM40</t>
   </si>
   <si>
@@ -429,6 +357,69 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>col4</t>
+  </si>
+  <si>
+    <t>col5</t>
+  </si>
+  <si>
+    <t>col6</t>
+  </si>
+  <si>
+    <t>col7</t>
+  </si>
+  <si>
+    <t>col8</t>
+  </si>
+  <si>
+    <t>col9</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>val2</t>
+  </si>
+  <si>
+    <t>val3</t>
+  </si>
+  <si>
+    <t>val4</t>
+  </si>
+  <si>
+    <t>val5</t>
+  </si>
+  <si>
+    <t>val6</t>
+  </si>
+  <si>
+    <t>val7</t>
+  </si>
+  <si>
+    <t>val8</t>
+  </si>
+  <si>
+    <t>val9</t>
+  </si>
+  <si>
+    <t>val10</t>
+  </si>
+  <si>
+    <t>val11</t>
+  </si>
+  <si>
+    <t>val12</t>
   </si>
 </sst>
 </file>
@@ -438,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -482,6 +473,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -961,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -977,10 +974,10 @@
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="8.21875" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="11" width="13" customWidth="1"/>
+    <col min="9" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -998,8 +995,12 @@
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1011,117 +1012,115 @@
       <c r="I2" s="29"/>
       <c r="J2" s="27"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="31"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="31"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
@@ -1133,27 +1132,29 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I9" s="14">
         <v>13235.38</v>
@@ -1164,8 +1165,14 @@
       <c r="K9" s="14">
         <v>17108.167265999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="14">
+        <v>3872.7872659999998</v>
+      </c>
+      <c r="M9" s="14">
+        <v>17108.167265999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1177,62 +1184,70 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" s="22">
         <v>25.12</v>
@@ -1243,29 +1258,35 @@
       <c r="K12" s="22">
         <v>221.14645200000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="22">
+        <v>196.02645200000001</v>
+      </c>
+      <c r="M12" s="22">
+        <v>221.14645200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" s="22">
         <v>25.12</v>
@@ -1276,29 +1297,35 @@
       <c r="K13" s="22">
         <v>221.14645200000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="22">
+        <v>196.02645200000001</v>
+      </c>
+      <c r="M13" s="22">
+        <v>221.14645200000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" s="22">
         <v>7.43</v>
@@ -1309,29 +1336,35 @@
       <c r="K14" s="22">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>129</v>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I15" s="22">
         <v>7.43</v>
@@ -1342,29 +1375,35 @@
       <c r="K15" s="22">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="22">
         <v>4.8499999999999996</v>
@@ -1375,29 +1414,35 @@
       <c r="K16" s="22">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="22">
         <v>9</v>
@@ -1408,29 +1453,35 @@
       <c r="K17" s="22">
         <v>41.727290400000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="22">
+        <v>32.727290400000001</v>
+      </c>
+      <c r="M17" s="22">
+        <v>41.727290400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="22">
         <v>1.05</v>
@@ -1441,29 +1492,35 @@
       <c r="K18" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M18" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>1</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="22">
         <v>0.84</v>
@@ -1474,29 +1531,35 @@
       <c r="K19" s="22">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>1</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" s="22">
         <v>21.46</v>
@@ -1507,29 +1570,35 @@
       <c r="K20" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M20" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I21" s="22">
         <v>21.46</v>
@@ -1540,29 +1609,35 @@
       <c r="K21" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M21" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>1</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I22" s="22">
         <v>21.46</v>
@@ -1573,29 +1648,35 @@
       <c r="K22" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M22" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>1</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="22">
         <v>21.46</v>
@@ -1606,29 +1687,35 @@
       <c r="K23" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M23" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="22">
         <v>21.46</v>
@@ -1639,29 +1726,35 @@
       <c r="K24" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>129</v>
+      <c r="L24" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M24" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
+        <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I25" s="22">
         <v>40.42</v>
@@ -1672,29 +1765,35 @@
       <c r="K25" s="22">
         <v>170.99187119999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="22">
+        <v>130.5718712</v>
+      </c>
+      <c r="M25" s="22">
+        <v>170.99187119999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>1</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I26" s="22">
         <v>53.22</v>
@@ -1705,29 +1804,35 @@
       <c r="K26" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M26" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I27" s="22">
         <v>53.22</v>
@@ -1738,29 +1843,35 @@
       <c r="K27" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M27" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>1</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I28" s="22">
         <v>53.22</v>
@@ -1771,29 +1882,35 @@
       <c r="K28" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M28" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>1</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I29" s="22">
         <v>53.22</v>
@@ -1804,29 +1921,35 @@
       <c r="K29" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M29" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="22">
         <v>53.22</v>
@@ -1837,29 +1960,35 @@
       <c r="K30" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M30" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="22">
         <v>12363.05</v>
@@ -1870,29 +1999,35 @@
       <c r="K31" s="22">
         <v>13884.531713199998</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="22">
+        <v>1521.4817131999998</v>
+      </c>
+      <c r="M31" s="22">
+        <v>13884.531713199998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I32" s="22">
         <v>203.44</v>
@@ -1903,29 +2038,35 @@
       <c r="K32" s="22">
         <v>514.0119684</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="22">
+        <v>310.5719684</v>
+      </c>
+      <c r="M32" s="22">
+        <v>514.0119684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>1</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="21" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I33" s="22">
         <v>53.25</v>
@@ -1936,29 +2077,35 @@
       <c r="K33" s="22">
         <v>69.613645200000008</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="22">
+        <v>16.363645200000001</v>
+      </c>
+      <c r="M33" s="22">
+        <v>69.613645200000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="22">
         <v>7.72</v>
@@ -1969,29 +2116,35 @@
       <c r="K34" s="22">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>1</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I35" s="22">
         <v>7.72</v>
@@ -2002,29 +2155,35 @@
       <c r="K35" s="22">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>1</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I36" s="22">
         <v>14.26</v>
@@ -2035,29 +2194,35 @@
       <c r="K36" s="22">
         <v>275.74103279999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>129</v>
+      <c r="L36" s="22">
+        <v>261.48103279999998</v>
+      </c>
+      <c r="M36" s="22">
+        <v>275.74103279999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
+        <v>1</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I37" s="22">
         <v>14.26</v>
@@ -2068,29 +2233,35 @@
       <c r="K37" s="22">
         <v>275.74103279999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="22">
+        <v>261.48103279999998</v>
+      </c>
+      <c r="M37" s="22">
+        <v>275.74103279999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>1</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I38" s="22">
         <v>9.24</v>
@@ -2101,29 +2272,35 @@
       <c r="K38" s="22">
         <v>9.24</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="22">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>1</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="22">
         <v>9.24</v>
@@ -2134,29 +2311,35 @@
       <c r="K39" s="22">
         <v>9.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>1</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I40" s="22">
         <v>5.12</v>
@@ -2167,29 +2350,35 @@
       <c r="K40" s="22">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="22">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>1</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I41" s="22">
         <v>5.12</v>
@@ -2200,29 +2389,35 @@
       <c r="K41" s="22">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>1</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="22">
         <v>5.25</v>
@@ -2233,29 +2428,35 @@
       <c r="K42" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M42" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>1</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I43" s="22">
         <v>5.25</v>
@@ -2266,29 +2467,35 @@
       <c r="K43" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M43" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>1</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I44" s="22">
         <v>1.0900000000000001</v>
@@ -2299,29 +2506,35 @@
       <c r="K44" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="22">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>1</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I45" s="22">
         <v>1.33</v>
@@ -2332,29 +2545,35 @@
       <c r="K45" s="22">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="22">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>1</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I46" s="22">
         <v>1.0900000000000001</v>
@@ -2365,29 +2584,35 @@
       <c r="K46" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="22">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>1</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I47" s="22">
         <v>1.0900000000000001</v>
@@ -2398,29 +2623,35 @@
       <c r="K47" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="22">
+        <v>0</v>
+      </c>
+      <c r="M47" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>1</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I48" s="22">
         <v>1.05</v>
@@ -2431,29 +2662,35 @@
       <c r="K48" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
-        <v>129</v>
+      <c r="L48" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M48" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
+        <v>1</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I49" s="22">
         <v>32.15</v>
@@ -2462,6 +2699,12 @@
         <v>0</v>
       </c>
       <c r="K49" s="22">
+        <v>32.15</v>
+      </c>
+      <c r="L49" s="22">
+        <v>0</v>
+      </c>
+      <c r="M49" s="22">
         <v>32.15</v>
       </c>
     </row>
@@ -2522,6 +2765,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.29527559055118108" right="0.29527559055118108" top="0.66929133858267709" bottom="1.3385826771653542" header="0.39370078740157477" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
@@ -2529,10 +2773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2545,10 +2789,10 @@
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="8.21875" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="11" width="13" customWidth="1"/>
+    <col min="9" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2564,10 +2808,14 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2579,117 +2827,115 @@
       <c r="I2" s="29"/>
       <c r="J2" s="27"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="31"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="31"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
@@ -2701,27 +2947,29 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I9" s="14">
         <v>13182.13</v>
@@ -2732,8 +2980,14 @@
       <c r="K9" s="14">
         <v>17038.553620799998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="14">
+        <v>3856.4236207999998</v>
+      </c>
+      <c r="M9" s="14">
+        <v>17038.553620799998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2745,62 +2999,70 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" s="22">
         <v>25.12</v>
@@ -2811,29 +3073,35 @@
       <c r="K12" s="22">
         <v>221.14645200000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="22">
+        <v>196.02645200000001</v>
+      </c>
+      <c r="M12" s="22">
+        <v>221.14645200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" s="22">
         <v>25.12</v>
@@ -2844,29 +3112,35 @@
       <c r="K13" s="22">
         <v>221.14645200000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="22">
+        <v>196.02645200000001</v>
+      </c>
+      <c r="M13" s="22">
+        <v>221.14645200000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" s="22">
         <v>7.43</v>
@@ -2877,29 +3151,35 @@
       <c r="K14" s="22">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="51" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I15" s="22">
         <v>7.43</v>
@@ -2910,29 +3190,35 @@
       <c r="K15" s="22">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="22">
         <v>4.8499999999999996</v>
@@ -2943,29 +3229,35 @@
       <c r="K16" s="22">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="22">
         <v>9</v>
@@ -2976,29 +3268,35 @@
       <c r="K17" s="22">
         <v>41.727290400000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="22">
+        <v>32.727290400000001</v>
+      </c>
+      <c r="M17" s="22">
+        <v>41.727290400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="22">
         <v>1.05</v>
@@ -3009,29 +3307,35 @@
       <c r="K18" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M18" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>1</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="22">
         <v>0.84</v>
@@ -3042,29 +3346,35 @@
       <c r="K19" s="22">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>1</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" s="22">
         <v>21.46</v>
@@ -3075,29 +3385,35 @@
       <c r="K20" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M20" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I21" s="22">
         <v>21.46</v>
@@ -3108,29 +3424,35 @@
       <c r="K21" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M21" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>1</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I22" s="22">
         <v>21.46</v>
@@ -3141,29 +3463,35 @@
       <c r="K22" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M22" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>1</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="22">
         <v>21.46</v>
@@ -3174,29 +3502,35 @@
       <c r="K23" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M23" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="22">
         <v>21.46</v>
@@ -3207,29 +3541,35 @@
       <c r="K24" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M24" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I25" s="22">
         <v>40.42</v>
@@ -3240,29 +3580,35 @@
       <c r="K25" s="22">
         <v>170.99187119999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="22">
+        <v>130.5718712</v>
+      </c>
+      <c r="M25" s="22">
+        <v>170.99187119999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>1</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I26" s="22">
         <v>53.22</v>
@@ -3273,29 +3619,35 @@
       <c r="K26" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M26" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I27" s="22">
         <v>53.22</v>
@@ -3306,29 +3658,35 @@
       <c r="K27" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M27" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I28" s="22">
         <v>53.22</v>
@@ -3339,29 +3697,35 @@
       <c r="K28" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M28" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>1</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I29" s="22">
         <v>53.22</v>
@@ -3372,29 +3736,35 @@
       <c r="K29" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M29" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="22">
         <v>53.22</v>
@@ -3405,29 +3775,35 @@
       <c r="K30" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M30" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="22">
         <v>12363.05</v>
@@ -3438,29 +3814,35 @@
       <c r="K31" s="22">
         <v>13884.531713199998</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="22">
+        <v>1521.4817131999998</v>
+      </c>
+      <c r="M31" s="22">
+        <v>13884.531713199998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I32" s="22">
         <v>203.44</v>
@@ -3471,29 +3853,35 @@
       <c r="K32" s="22">
         <v>514.0119684</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="22">
+        <v>310.5719684</v>
+      </c>
+      <c r="M32" s="22">
+        <v>514.0119684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>1</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I33" s="22">
         <v>7.72</v>
@@ -3504,29 +3892,35 @@
       <c r="K33" s="22">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="22">
         <v>7.72</v>
@@ -3537,29 +3931,35 @@
       <c r="K34" s="22">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>1</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I35" s="22">
         <v>14.26</v>
@@ -3570,29 +3970,35 @@
       <c r="K35" s="22">
         <v>275.74103279999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="22">
+        <v>261.48103279999998</v>
+      </c>
+      <c r="M35" s="22">
+        <v>275.74103279999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>1</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I36" s="22">
         <v>14.26</v>
@@ -3603,29 +4009,35 @@
       <c r="K36" s="22">
         <v>275.74103279999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="22">
+        <v>261.48103279999998</v>
+      </c>
+      <c r="M36" s="22">
+        <v>275.74103279999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>1</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I37" s="22">
         <v>9.24</v>
@@ -3636,29 +4048,35 @@
       <c r="K37" s="22">
         <v>9.24</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="22">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>1</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I38" s="22">
         <v>9.24</v>
@@ -3669,29 +4087,35 @@
       <c r="K38" s="22">
         <v>9.24</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="22">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>1</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="22">
         <v>5.12</v>
@@ -3702,29 +4126,35 @@
       <c r="K39" s="22">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>1</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I40" s="22">
         <v>5.12</v>
@@ -3735,29 +4165,35 @@
       <c r="K40" s="22">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="22">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>1</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I41" s="22">
         <v>5.25</v>
@@ -3768,29 +4204,35 @@
       <c r="K41" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M41" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>1</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I42" s="22">
         <v>5.25</v>
@@ -3801,29 +4243,35 @@
       <c r="K42" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M42" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>1</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I43" s="22">
         <v>1.0900000000000001</v>
@@ -3834,29 +4282,35 @@
       <c r="K43" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>1</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I44" s="22">
         <v>1.33</v>
@@ -3867,29 +4321,35 @@
       <c r="K44" s="22">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="22">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>1</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I45" s="22">
         <v>1.0900000000000001</v>
@@ -3900,29 +4360,35 @@
       <c r="K45" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="22">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>1</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I46" s="22">
         <v>1.0900000000000001</v>
@@ -3933,29 +4399,35 @@
       <c r="K46" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="22">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>1</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I47" s="22">
         <v>1.05</v>
@@ -3966,29 +4438,35 @@
       <c r="K47" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M47" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>1</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I48" s="22">
         <v>32.15</v>
@@ -3997,6 +4475,12 @@
         <v>0</v>
       </c>
       <c r="K48" s="22">
+        <v>32.15</v>
+      </c>
+      <c r="L48" s="22">
+        <v>0</v>
+      </c>
+      <c r="M48" s="22">
         <v>32.15</v>
       </c>
     </row>
@@ -4063,9 +4547,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4077,10 +4563,10 @@
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="8.21875" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="11" width="13" customWidth="1"/>
+    <col min="9" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4096,10 +4582,14 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4111,117 +4601,115 @@
       <c r="I2" s="29"/>
       <c r="J2" s="27"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="31"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="31"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
@@ -4233,27 +4721,29 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I9" s="14">
         <v>12284.029999999999</v>
@@ -4264,8 +4754,14 @@
       <c r="K9" s="14">
         <v>14719.177521199999</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="14">
+        <v>2435.1475211999996</v>
+      </c>
+      <c r="M9" s="14">
+        <v>14719.177521199999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4277,62 +4773,70 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" s="22">
         <v>4.8499999999999996</v>
@@ -4343,29 +4847,35 @@
       <c r="K12" s="22">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" s="22">
         <v>9</v>
@@ -4376,29 +4886,35 @@
       <c r="K13" s="22">
         <v>41.727290400000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="22">
+        <v>32.727290400000001</v>
+      </c>
+      <c r="M13" s="22">
+        <v>41.727290400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" s="22">
         <v>1.05</v>
@@ -4409,29 +4925,35 @@
       <c r="K14" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M14" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I15" s="22">
         <v>0.84</v>
@@ -4442,29 +4964,35 @@
       <c r="K15" s="22">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="22">
         <v>21.46</v>
@@ -4475,29 +5003,35 @@
       <c r="K16" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M16" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="22">
         <v>21.46</v>
@@ -4508,29 +5042,35 @@
       <c r="K17" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M17" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="22">
         <v>53.22</v>
@@ -4541,29 +5081,35 @@
       <c r="K18" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M18" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>1</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="22">
         <v>53.22</v>
@@ -4574,29 +5120,35 @@
       <c r="K19" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M19" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>1</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" s="22">
         <v>53.22</v>
@@ -4607,29 +5159,35 @@
       <c r="K20" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M20" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I21" s="22">
         <v>11760.72</v>
@@ -4640,29 +5198,35 @@
       <c r="K21" s="22">
         <v>13282.2017132</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="22">
+        <v>1521.4817131999998</v>
+      </c>
+      <c r="M21" s="22">
+        <v>13282.2017132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>1</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I22" s="22">
         <v>203.44</v>
@@ -4673,29 +5237,35 @@
       <c r="K22" s="22">
         <v>514.0119684</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="22">
+        <v>310.5719684</v>
+      </c>
+      <c r="M22" s="22">
+        <v>514.0119684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>1</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="22">
         <v>53.25</v>
@@ -4706,29 +5276,35 @@
       <c r="K23" s="22">
         <v>69.613645200000008</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="22">
+        <v>16.363645200000001</v>
+      </c>
+      <c r="M23" s="22">
+        <v>69.613645200000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="22">
         <v>5.25</v>
@@ -4739,29 +5315,35 @@
       <c r="K24" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M24" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I25" s="22">
         <v>5.25</v>
@@ -4772,29 +5354,35 @@
       <c r="K25" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M25" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>1</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I26" s="22">
         <v>1.0900000000000001</v>
@@ -4805,29 +5393,35 @@
       <c r="K26" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="22">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I27" s="22">
         <v>1.33</v>
@@ -4838,29 +5432,35 @@
       <c r="K27" s="22">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="22">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>1</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I28" s="22">
         <v>1.0900000000000001</v>
@@ -4871,29 +5471,35 @@
       <c r="K28" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="22">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>1</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I29" s="22">
         <v>1.0900000000000001</v>
@@ -4904,29 +5510,35 @@
       <c r="K29" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="22">
         <v>1.05</v>
@@ -4937,29 +5549,35 @@
       <c r="K30" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M30" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="22">
         <v>32.15</v>
@@ -4968,6 +5586,12 @@
         <v>0</v>
       </c>
       <c r="K31" s="22">
+        <v>32.15</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
         <v>32.15</v>
       </c>
     </row>
@@ -5017,9 +5641,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5031,10 +5657,10 @@
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="8.21875" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="11" width="13" customWidth="1"/>
+    <col min="9" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5050,10 +5676,14 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5065,117 +5695,115 @@
       <c r="I2" s="29"/>
       <c r="J2" s="27"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="31"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="31"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="10.050000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
@@ -5187,27 +5815,29 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I9" s="14">
         <v>12433.39</v>
@@ -5218,8 +5848,14 @@
       <c r="K9" s="14">
         <v>15195.1358444</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="14">
+        <v>2761.7458443999994</v>
+      </c>
+      <c r="M9" s="14">
+        <v>15195.1358444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5231,62 +5867,70 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" s="22">
         <v>4.8499999999999996</v>
@@ -5297,29 +5941,35 @@
       <c r="K12" s="22">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" s="22">
         <v>9</v>
@@ -5330,29 +5980,35 @@
       <c r="K13" s="22">
         <v>41.727290400000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="22">
+        <v>32.727290400000001</v>
+      </c>
+      <c r="M13" s="22">
+        <v>41.727290400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" s="22">
         <v>1.05</v>
@@ -5363,29 +6019,35 @@
       <c r="K14" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M14" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I15" s="22">
         <v>0.84</v>
@@ -5396,29 +6058,35 @@
       <c r="K15" s="22">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="22">
         <v>21.46</v>
@@ -5429,29 +6097,35 @@
       <c r="K16" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M16" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="22">
         <v>21.46</v>
@@ -5462,29 +6136,35 @@
       <c r="K17" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M17" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="22">
         <v>21.46</v>
@@ -5495,29 +6175,35 @@
       <c r="K18" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M18" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>1</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="22">
         <v>21.46</v>
@@ -5528,29 +6214,35 @@
       <c r="K19" s="22">
         <v>86.91458080000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="22">
+        <v>65.454580800000002</v>
+      </c>
+      <c r="M19" s="22">
+        <v>86.91458080000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>1</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" s="22">
         <v>53.22</v>
@@ -5561,29 +6253,35 @@
       <c r="K20" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M20" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>1</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I21" s="22">
         <v>53.22</v>
@@ -5594,29 +6292,35 @@
       <c r="K21" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M21" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>1</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I22" s="22">
         <v>53.22</v>
@@ -5627,29 +6331,35 @@
       <c r="K22" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M22" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>1</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="22">
         <v>53.22</v>
@@ -5660,29 +6370,35 @@
       <c r="K23" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M23" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="40.799999999999997" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="22">
         <v>53.22</v>
@@ -5693,29 +6409,35 @@
       <c r="K24" s="22">
         <v>151.06458080000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="22">
+        <v>97.844580800000017</v>
+      </c>
+      <c r="M24" s="22">
+        <v>151.06458080000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>1</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I25" s="22">
         <v>11760.72</v>
@@ -5726,29 +6448,35 @@
       <c r="K25" s="22">
         <v>13282.2017132</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="22">
+        <v>1521.4817131999998</v>
+      </c>
+      <c r="M25" s="22">
+        <v>13282.2017132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>1</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I26" s="22">
         <v>203.44</v>
@@ -5759,29 +6487,35 @@
       <c r="K26" s="22">
         <v>514.0119684</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="22">
+        <v>310.5719684</v>
+      </c>
+      <c r="M26" s="22">
+        <v>514.0119684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>1</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I27" s="22">
         <v>53.25</v>
@@ -5792,29 +6526,35 @@
       <c r="K27" s="22">
         <v>69.613645200000008</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="22">
+        <v>16.363645200000001</v>
+      </c>
+      <c r="M27" s="22">
+        <v>69.613645200000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>1</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I28" s="22">
         <v>5.25</v>
@@ -5825,29 +6565,35 @@
       <c r="K28" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M28" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>1</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="21" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I29" s="22">
         <v>5.25</v>
@@ -5858,29 +6604,35 @@
       <c r="K29" s="22">
         <v>37.64</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M29" s="22">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="22">
         <v>1.0900000000000001</v>
@@ -5891,29 +6643,35 @@
       <c r="K30" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="22">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="22">
         <v>1.33</v>
@@ -5924,29 +6682,35 @@
       <c r="K31" s="22">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I32" s="22">
         <v>1.0900000000000001</v>
@@ -5957,29 +6721,35 @@
       <c r="K32" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>1</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="21" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I33" s="22">
         <v>1.0900000000000001</v>
@@ -5990,29 +6760,35 @@
       <c r="K33" s="22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="22">
         <v>1.05</v>
@@ -6023,29 +6799,35 @@
       <c r="K34" s="22">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="22">
+        <v>32.39</v>
+      </c>
+      <c r="M34" s="22">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>1</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I35" s="22">
         <v>32.15</v>
@@ -6054,6 +6836,12 @@
         <v>0</v>
       </c>
       <c r="K35" s="22">
+        <v>32.15</v>
+      </c>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
         <v>32.15</v>
       </c>
     </row>
